--- a/app/config/tables/plot/forms/plot/plot.xlsx
+++ b/app/config/tables/plot/forms/plot/plot.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\plot\forms\plot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1479" yWindow="0" windowWidth="25606" windowHeight="16076" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="2" r:id="rId3"/>
+    <sheet name="properties" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -123,6 +129,78 @@
   </si>
   <si>
     <t>disableSwipeNavigation</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["plot_name","location_latitude","location_longitude","location_altitude","location_accuracy","planting"]</t>
+  </si>
+  <si>
+    <t>detailViewFileName</t>
+  </si>
+  <si>
+    <t>configpath</t>
+  </si>
+  <si>
+    <t>config/tables/plot/html/plot_detail.html</t>
+  </si>
+  <si>
+    <t>listViewFileName</t>
+  </si>
+  <si>
+    <t>config/tables/plot/html/plot_list.html</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>TableMapFragment</t>
+  </si>
+  <si>
+    <t>keyMapLatCol</t>
+  </si>
+  <si>
+    <t>keyMapLongCol</t>
+  </si>
+  <si>
+    <t>location_latitude</t>
+  </si>
+  <si>
+    <t>location_longitude</t>
+  </si>
+  <si>
+    <t>keyColorRuleType</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>mapListViewFileName</t>
   </si>
 </sst>
 </file>
@@ -141,6 +219,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -265,6 +344,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,13 +680,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -621,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -634,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -647,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>20</v>
@@ -681,12 +763,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -697,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -708,7 +790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -719,7 +801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -745,18 +827,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -767,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -775,7 +857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -783,7 +865,7 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -791,7 +873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -799,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -807,7 +889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="30.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -824,4 +906,178 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/config/tables/plot/forms/plot/plot.xlsx
+++ b/app/config/tables/plot/forms/plot/plot.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\plot\forms\plot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1479" yWindow="0" windowWidth="25606" windowHeight="16076" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -92,33 +87,12 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>What type of plant is in this plot?</t>
-  </si>
-  <si>
     <t>choice_list_name</t>
   </si>
   <si>
     <t>data_value</t>
   </si>
   <si>
-    <t>corn</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>Bean</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
     <t>planting</t>
   </si>
   <si>
@@ -152,9 +126,6 @@
     <t>array</t>
   </si>
   <si>
-    <t>["plot_name","location_latitude","location_longitude","location_altitude","location_accuracy","planting"]</t>
-  </si>
-  <si>
     <t>detailViewFileName</t>
   </si>
   <si>
@@ -201,6 +172,39 @@
   </si>
   <si>
     <t>mapListViewFileName</t>
+  </si>
+  <si>
+    <t>What type of maize plant is in this plot?</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>plot_size</t>
+  </si>
+  <si>
+    <t>How big is this plot in hectares?</t>
+  </si>
+  <si>
+    <t>["plot_name","location_latitude","location_longitude","location_altitude","location_accuracy","planting", "plot_size"]</t>
   </si>
 </sst>
 </file>
@@ -274,8 +278,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -318,7 +324,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -328,6 +334,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -337,6 +344,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,19 +682,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -703,20 +711,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -729,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>20</v>
@@ -738,10 +746,22 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -760,56 +780,56 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -831,14 +851,14 @@
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -849,7 +869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -857,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -865,7 +885,7 @@
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -873,25 +893,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="b">
         <v>1</v>
@@ -913,26 +933,26 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.77734375" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -941,143 +961,148 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/plot/forms/plot/plot.xlsx
+++ b/app/config/tables/plot/forms/plot/plot.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\plot\forms\plot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1479" yWindow="0" windowWidth="25606" windowHeight="16076" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -60,9 +65,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -205,12 +207,18 @@
   </si>
   <si>
     <t>["plot_name","location_latitude","location_longitude","location_altitude","location_accuracy","planting", "plot_size"]</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -684,17 +692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -708,23 +716,23 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -737,31 +745,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -783,53 +791,53 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -848,17 +856,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -866,52 +875,52 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>14</v>
       </c>
       <c r="B3">
         <v>20140331</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="30.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="B7" s="10" t="b">
         <v>1</v>
@@ -932,27 +941,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -961,140 +970,140 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/plot/forms/plot/plot.xlsx
+++ b/app/config/tables/plot/forms/plot/plot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1479" yWindow="0" windowWidth="25606" windowHeight="16076" tabRatio="500"/>
+    <workbookView xWindow="1479" yWindow="0" windowWidth="25606" windowHeight="16076" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>text</t>
@@ -692,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -716,60 +713,60 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -787,57 +784,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -869,26 +867,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>20140331</v>
@@ -896,31 +894,31 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="10" t="b">
         <v>1</v>
@@ -955,155 +953,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
